--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.26571312333418</v>
+        <v>18.57067033333334</v>
       </c>
       <c r="H2">
-        <v>2.26571312333418</v>
+        <v>55.712011</v>
       </c>
       <c r="I2">
-        <v>0.6684571705884916</v>
+        <v>0.834164862818447</v>
       </c>
       <c r="J2">
-        <v>0.6684571705884916</v>
+        <v>0.8341648628184472</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.36829121107272</v>
+        <v>0.097922</v>
       </c>
       <c r="N2">
-        <v>0.36829121107272</v>
+        <v>0.293766</v>
       </c>
       <c r="O2">
-        <v>0.3583393610439588</v>
+        <v>0.07362807353834616</v>
       </c>
       <c r="P2">
-        <v>0.3583393610439588</v>
+        <v>0.07362807353834616</v>
       </c>
       <c r="Q2">
-        <v>0.8344422301361002</v>
+        <v>1.818477180380667</v>
       </c>
       <c r="R2">
-        <v>0.8344422301361002</v>
+        <v>16.366294623426</v>
       </c>
       <c r="S2">
-        <v>0.2395345153939327</v>
+        <v>0.06141795186270105</v>
       </c>
       <c r="T2">
-        <v>0.2395345153939327</v>
+        <v>0.06141795186270106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.26571312333418</v>
+        <v>18.57067033333334</v>
       </c>
       <c r="H3">
-        <v>2.26571312333418</v>
+        <v>55.712011</v>
       </c>
       <c r="I3">
-        <v>0.6684571705884916</v>
+        <v>0.834164862818447</v>
       </c>
       <c r="J3">
-        <v>0.6684571705884916</v>
+        <v>0.8341648628184472</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.659480926489194</v>
+        <v>0.3865706666666667</v>
       </c>
       <c r="N3">
-        <v>0.659480926489194</v>
+        <v>1.159712</v>
       </c>
       <c r="O3">
-        <v>0.6416606389560412</v>
+        <v>0.2906645439543804</v>
       </c>
       <c r="P3">
-        <v>0.6416606389560412</v>
+        <v>0.2906645439543804</v>
       </c>
       <c r="Q3">
-        <v>1.494194589735151</v>
+        <v>7.178876411203556</v>
       </c>
       <c r="R3">
-        <v>1.494194589735151</v>
+        <v>64.609887700832</v>
       </c>
       <c r="S3">
-        <v>0.428922655194559</v>
+        <v>0.2424621494338922</v>
       </c>
       <c r="T3">
-        <v>0.428922655194559</v>
+        <v>0.2424621494338922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.12375328232874</v>
+        <v>18.57067033333334</v>
       </c>
       <c r="H4">
-        <v>1.12375328232874</v>
+        <v>55.712011</v>
       </c>
       <c r="I4">
-        <v>0.3315428294115084</v>
+        <v>0.834164862818447</v>
       </c>
       <c r="J4">
-        <v>0.3315428294115084</v>
+        <v>0.8341648628184472</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.36829121107272</v>
+        <v>0.05345533333333333</v>
       </c>
       <c r="N4">
-        <v>0.36829121107272</v>
+        <v>0.160366</v>
       </c>
       <c r="O4">
-        <v>0.3583393610439588</v>
+        <v>0.04019334994877018</v>
       </c>
       <c r="P4">
-        <v>0.3583393610439588</v>
+        <v>0.04019334994877019</v>
       </c>
       <c r="Q4">
-        <v>0.4138684572957959</v>
+        <v>0.992701372891778</v>
       </c>
       <c r="R4">
-        <v>0.4138684572957959</v>
+        <v>8.934312356026002</v>
       </c>
       <c r="S4">
-        <v>0.1188048456500262</v>
+        <v>0.03352788024622971</v>
       </c>
       <c r="T4">
-        <v>0.1188048456500262</v>
+        <v>0.03352788024622973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>18.57067033333334</v>
+      </c>
+      <c r="H5">
+        <v>55.712011</v>
+      </c>
+      <c r="I5">
+        <v>0.834164862818447</v>
+      </c>
+      <c r="J5">
+        <v>0.8341648628184472</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.7920066666666666</v>
+      </c>
+      <c r="N5">
+        <v>2.37602</v>
+      </c>
+      <c r="O5">
+        <v>0.5955140325585032</v>
+      </c>
+      <c r="P5">
+        <v>0.5955140325585033</v>
+      </c>
+      <c r="Q5">
+        <v>14.70809470846889</v>
+      </c>
+      <c r="R5">
+        <v>132.37285237622</v>
+      </c>
+      <c r="S5">
+        <v>0.4967568812756241</v>
+      </c>
+      <c r="T5">
+        <v>0.4967568812756242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.333117</v>
+      </c>
+      <c r="H6">
+        <v>6.999351000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="J6">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.097922</v>
+      </c>
+      <c r="N6">
+        <v>0.293766</v>
+      </c>
+      <c r="O6">
+        <v>0.07362807353834616</v>
+      </c>
+      <c r="P6">
+        <v>0.07362807353834616</v>
+      </c>
+      <c r="Q6">
+        <v>0.228463482874</v>
+      </c>
+      <c r="R6">
+        <v>2.056171345866</v>
+      </c>
+      <c r="S6">
+        <v>0.007716214063573265</v>
+      </c>
+      <c r="T6">
+        <v>0.007716214063573267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.333117</v>
+      </c>
+      <c r="H7">
+        <v>6.999351000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="J7">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3865706666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.159712</v>
+      </c>
+      <c r="O7">
+        <v>0.2906645439543804</v>
+      </c>
+      <c r="P7">
+        <v>0.2906645439543804</v>
+      </c>
+      <c r="Q7">
+        <v>0.9019145941013333</v>
+      </c>
+      <c r="R7">
+        <v>8.117231346912002</v>
+      </c>
+      <c r="S7">
+        <v>0.03046161245377164</v>
+      </c>
+      <c r="T7">
+        <v>0.03046161245377165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.333117</v>
+      </c>
+      <c r="H8">
+        <v>6.999351000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="J8">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.05345533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.160366</v>
+      </c>
+      <c r="O8">
+        <v>0.04019334994877018</v>
+      </c>
+      <c r="P8">
+        <v>0.04019334994877019</v>
+      </c>
+      <c r="Q8">
+        <v>0.1247175469406667</v>
+      </c>
+      <c r="R8">
+        <v>1.122457922466</v>
+      </c>
+      <c r="S8">
+        <v>0.004212258683846975</v>
+      </c>
+      <c r="T8">
+        <v>0.004212258683846976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.333117</v>
+      </c>
+      <c r="H9">
+        <v>6.999351000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="J9">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7920066666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.37602</v>
+      </c>
+      <c r="O9">
+        <v>0.5955140325585032</v>
+      </c>
+      <c r="P9">
+        <v>0.5955140325585033</v>
+      </c>
+      <c r="Q9">
+        <v>1.847844218113333</v>
+      </c>
+      <c r="R9">
+        <v>16.63059796302</v>
+      </c>
+      <c r="S9">
+        <v>0.06240980555725083</v>
+      </c>
+      <c r="T9">
+        <v>0.06240980555725086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.118438</v>
+      </c>
+      <c r="H10">
+        <v>0.355314</v>
+      </c>
+      <c r="I10">
+        <v>0.005320045870673627</v>
+      </c>
+      <c r="J10">
+        <v>0.005320045870673628</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.097922</v>
+      </c>
+      <c r="N10">
+        <v>0.293766</v>
+      </c>
+      <c r="O10">
+        <v>0.07362807353834616</v>
+      </c>
+      <c r="P10">
+        <v>0.07362807353834616</v>
+      </c>
+      <c r="Q10">
+        <v>0.011597685836</v>
+      </c>
+      <c r="R10">
+        <v>0.104379172524</v>
+      </c>
+      <c r="S10">
+        <v>0.0003917047285933326</v>
+      </c>
+      <c r="T10">
+        <v>0.0003917047285933327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.12375328232874</v>
-      </c>
-      <c r="H5">
-        <v>1.12375328232874</v>
-      </c>
-      <c r="I5">
-        <v>0.3315428294115084</v>
-      </c>
-      <c r="J5">
-        <v>0.3315428294115084</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.659480926489194</v>
-      </c>
-      <c r="N5">
-        <v>0.659480926489194</v>
-      </c>
-      <c r="O5">
-        <v>0.6416606389560412</v>
-      </c>
-      <c r="P5">
-        <v>0.6416606389560412</v>
-      </c>
-      <c r="Q5">
-        <v>0.7410938557754302</v>
-      </c>
-      <c r="R5">
-        <v>0.7410938557754302</v>
-      </c>
-      <c r="S5">
-        <v>0.2127379837614823</v>
-      </c>
-      <c r="T5">
-        <v>0.2127379837614823</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.118438</v>
+      </c>
+      <c r="H11">
+        <v>0.355314</v>
+      </c>
+      <c r="I11">
+        <v>0.005320045870673627</v>
+      </c>
+      <c r="J11">
+        <v>0.005320045870673628</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3865706666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.159712</v>
+      </c>
+      <c r="O11">
+        <v>0.2906645439543804</v>
+      </c>
+      <c r="P11">
+        <v>0.2906645439543804</v>
+      </c>
+      <c r="Q11">
+        <v>0.04578465661866667</v>
+      </c>
+      <c r="R11">
+        <v>0.412061909568</v>
+      </c>
+      <c r="S11">
+        <v>0.001546348706815734</v>
+      </c>
+      <c r="T11">
+        <v>0.001546348706815735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.118438</v>
+      </c>
+      <c r="H12">
+        <v>0.355314</v>
+      </c>
+      <c r="I12">
+        <v>0.005320045870673627</v>
+      </c>
+      <c r="J12">
+        <v>0.005320045870673628</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05345533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.160366</v>
+      </c>
+      <c r="O12">
+        <v>0.04019334994877018</v>
+      </c>
+      <c r="P12">
+        <v>0.04019334994877019</v>
+      </c>
+      <c r="Q12">
+        <v>0.006331142769333334</v>
+      </c>
+      <c r="R12">
+        <v>0.05698028492400001</v>
+      </c>
+      <c r="S12">
+        <v>0.0002138304654234948</v>
+      </c>
+      <c r="T12">
+        <v>0.0002138304654234949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.118438</v>
+      </c>
+      <c r="H13">
+        <v>0.355314</v>
+      </c>
+      <c r="I13">
+        <v>0.005320045870673627</v>
+      </c>
+      <c r="J13">
+        <v>0.005320045870673628</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7920066666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.37602</v>
+      </c>
+      <c r="O13">
+        <v>0.5955140325585032</v>
+      </c>
+      <c r="P13">
+        <v>0.5955140325585033</v>
+      </c>
+      <c r="Q13">
+        <v>0.09380368558666666</v>
+      </c>
+      <c r="R13">
+        <v>0.84423317028</v>
+      </c>
+      <c r="S13">
+        <v>0.003168161969841065</v>
+      </c>
+      <c r="T13">
+        <v>0.003168161969841066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.240364666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.721094</v>
+      </c>
+      <c r="I14">
+        <v>0.05571520055243645</v>
+      </c>
+      <c r="J14">
+        <v>0.05571520055243646</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.097922</v>
+      </c>
+      <c r="N14">
+        <v>0.293766</v>
+      </c>
+      <c r="O14">
+        <v>0.07362807353834616</v>
+      </c>
+      <c r="P14">
+        <v>0.07362807353834616</v>
+      </c>
+      <c r="Q14">
+        <v>0.1214589888893333</v>
+      </c>
+      <c r="R14">
+        <v>1.093130900004</v>
+      </c>
+      <c r="S14">
+        <v>0.004102202883478495</v>
+      </c>
+      <c r="T14">
+        <v>0.004102202883478497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.240364666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.721094</v>
+      </c>
+      <c r="I15">
+        <v>0.05571520055243645</v>
+      </c>
+      <c r="J15">
+        <v>0.05571520055243646</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3865706666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.159712</v>
+      </c>
+      <c r="O15">
+        <v>0.2906645439543804</v>
+      </c>
+      <c r="P15">
+        <v>0.2906645439543804</v>
+      </c>
+      <c r="Q15">
+        <v>0.4794885961031111</v>
+      </c>
+      <c r="R15">
+        <v>4.315397364928</v>
+      </c>
+      <c r="S15">
+        <v>0.01619443335990078</v>
+      </c>
+      <c r="T15">
+        <v>0.01619443335990079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.240364666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.721094</v>
+      </c>
+      <c r="I16">
+        <v>0.05571520055243645</v>
+      </c>
+      <c r="J16">
+        <v>0.05571520055243646</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05345533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.160366</v>
+      </c>
+      <c r="O16">
+        <v>0.04019334994877018</v>
+      </c>
+      <c r="P16">
+        <v>0.04019334994877019</v>
+      </c>
+      <c r="Q16">
+        <v>0.06630410671155555</v>
+      </c>
+      <c r="R16">
+        <v>0.596736960404</v>
+      </c>
+      <c r="S16">
+        <v>0.002239380553269992</v>
+      </c>
+      <c r="T16">
+        <v>0.002239380553269993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.240364666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.721094</v>
+      </c>
+      <c r="I17">
+        <v>0.05571520055243645</v>
+      </c>
+      <c r="J17">
+        <v>0.05571520055243646</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7920066666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.37602</v>
+      </c>
+      <c r="O17">
+        <v>0.5955140325585032</v>
+      </c>
+      <c r="P17">
+        <v>0.5955140325585033</v>
+      </c>
+      <c r="Q17">
+        <v>0.9823770850977777</v>
+      </c>
+      <c r="R17">
+        <v>8.841393765879999</v>
+      </c>
+      <c r="S17">
+        <v>0.03317918375578718</v>
+      </c>
+      <c r="T17">
+        <v>0.03317918375578719</v>
       </c>
     </row>
   </sheetData>
